--- a/variable_definitions.xlsx
+++ b/variable_definitions.xlsx
@@ -59,9 +59,6 @@
     <t>Uninvolved Lung</t>
   </si>
   <si>
-    <t>amount of drug found in uninvolved lung (part of the lung where there is no lesion).</t>
-  </si>
-  <si>
     <t>RIM</t>
   </si>
   <si>
@@ -95,63 +92,42 @@
     <t>Standard Lung</t>
   </si>
   <si>
-    <t>amount of drug found in standard lung EXCLUDING THE LESION</t>
-  </si>
-  <si>
     <t>SLE</t>
   </si>
   <si>
     <t>Standard Lesion</t>
   </si>
   <si>
-    <t>amount of drug found in standard lesion (JUST THE LESION, NO LUNG)</t>
-  </si>
-  <si>
     <t>vitro</t>
   </si>
   <si>
     <t>cLogP</t>
   </si>
   <si>
-    <t>octanol:water partition coefficient. This is the logarithm of the concentration of drug in octanol (oil) and water - it's a measure of lipohilicity/hydrophoicity of the drug.</t>
-  </si>
-  <si>
     <t>huPPB</t>
   </si>
   <si>
     <t>Human Plasma Binding</t>
   </si>
   <si>
-    <t>The fraction of drug concentration that binds to human plasma proteins, (1 - huPPB) is then the free concentration of the drug.</t>
-  </si>
-  <si>
     <t>muPPB</t>
   </si>
   <si>
     <t>Mouse Plasma Binding</t>
   </si>
   <si>
-    <t>the fraction of drug concentration that binds to mouse plasma proteins, (1 - muPPB) is then the free concentration of the drug.</t>
-  </si>
-  <si>
     <t>MIC_Erdman</t>
   </si>
   <si>
     <t>MIC Erdman Strain</t>
   </si>
   <si>
-    <t>Minimum Inhibitory Concentration of Erdman strain. This is the minimum drug concentration that inhibits the growth of the bacteria, in this case the Erdman strain of Mycobacterium tuberculosis.</t>
-  </si>
-  <si>
     <t>MICserumErd</t>
   </si>
   <si>
     <t>MIC Erdman Strain with Serum</t>
   </si>
   <si>
-    <t>Minimum Inhibitory Concentration of Erdman Strain WITH serum added (serum added demonstrates a more similar to the environment the drug acts in, in-vivo).</t>
-  </si>
-  <si>
     <t>MIC_Rv</t>
   </si>
   <si>
@@ -167,18 +143,12 @@
     <t>Caseum Binding</t>
   </si>
   <si>
-    <t>fraction of drug concentration that is bound to the constituents of the caseum (caseum is at the center of the necrotic granuloma) (% unbound)</t>
-  </si>
-  <si>
     <t>MacUptake</t>
   </si>
   <si>
     <t>Macrophage Uptake (Ratio)</t>
   </si>
   <si>
-    <t>rate of uptake of drug molecules by macrophages. (I/E concentration ratio). MacUptake is unitless (I / E concentration ratio)--this could refer to concentrations inside and outside the macrophage I intracellular / E extracellular. The time at which the measurement is taken is probably a standard one.</t>
-  </si>
-  <si>
     <t>drug</t>
   </si>
   <si>
@@ -203,16 +173,46 @@
     <t>Dosage Interval</t>
   </si>
   <si>
-    <t>When the dose is adminstered (QD reflects once per day, and BID reflects twice per day)</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
     <t>Level of Drug</t>
   </si>
   <si>
-    <t>The level the drug was measured.(Either occurs at the highest level (cmax), or lowest level (trough)</t>
+    <t>amount of drug found in uninvolved lung // (part of the lung where there is no lesion).</t>
+  </si>
+  <si>
+    <t>amount of drug found in standard // lung EXCLUDING THE LESION</t>
+  </si>
+  <si>
+    <t>amount of drug found in standard lesion // (JUST THE LESION, NO LUNG)</t>
+  </si>
+  <si>
+    <t>octanol:water partition coefficient. This is the logarithm // of the concentration of drug in octanol (oil) and water - it's a // measure of lipohilicity/hydrophoicity of the drug.</t>
+  </si>
+  <si>
+    <t>The fraction of drug concentration that binds to human // plasma proteins, (1 - huPPB) is then the free concentration of // the drug.</t>
+  </si>
+  <si>
+    <t>the fraction of drug concentration that binds to mouse // plasma proteins, (1 - muPPB) is then the free concentration // of the drug.</t>
+  </si>
+  <si>
+    <t>Minimum Inhibitory Concentration of Erdman strain. // This is the minimum drug concentration that inhibits the growth // of the bacteria, in this case the Erdman strain of Mycobacterium tuberculosis.</t>
+  </si>
+  <si>
+    <t>Minimum Inhibitory Concentration of Erdman Strain WITH // serum added (serum added demonstrates a more similar to the // environment the drug acts in, in-vivo).</t>
+  </si>
+  <si>
+    <t>fraction of drug concentration that is bound to the constituents // of the caseum (caseum is at the center of the necrotic granuloma) (% unbound)</t>
+  </si>
+  <si>
+    <t>rate of uptake of drug molecules by macrophages. (I/E concentration ratio). // MacUptake is unitless (I / E concentration ratio)--this could refer to // concentrations inside and outside the macrophage I intracellular / E extracellular. // The time at which the measurement is taken is probably a standard one.</t>
+  </si>
+  <si>
+    <t>When the dose is adminstered (QD reflects once // per day, and BID reflects twice per day)</t>
+  </si>
+  <si>
+    <t>The level the drug was measured.(Either occurs at // the highest level (cmax), or lowest level (trough)</t>
   </si>
 </sst>
 </file>
@@ -550,13 +550,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="24.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="108.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -587,7 +587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -597,8 +597,8 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -606,13 +606,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -620,13 +620,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -634,208 +634,208 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="128" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="96" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="96" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="144" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="112" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>40</v>
+      <c r="D13" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>61</v>
       </c>
     </row>

--- a/variable_definitions.xlsx
+++ b/variable_definitions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18320" windowHeight="14080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,40 +179,40 @@
     <t>Level of Drug</t>
   </si>
   <si>
-    <t>amount of drug found in uninvolved lung // (part of the lung where there is no lesion).</t>
-  </si>
-  <si>
-    <t>amount of drug found in standard // lung EXCLUDING THE LESION</t>
-  </si>
-  <si>
-    <t>amount of drug found in standard lesion // (JUST THE LESION, NO LUNG)</t>
-  </si>
-  <si>
-    <t>octanol:water partition coefficient. This is the logarithm // of the concentration of drug in octanol (oil) and water - it's a // measure of lipohilicity/hydrophoicity of the drug.</t>
-  </si>
-  <si>
-    <t>The fraction of drug concentration that binds to human // plasma proteins, (1 - huPPB) is then the free concentration of // the drug.</t>
-  </si>
-  <si>
-    <t>the fraction of drug concentration that binds to mouse // plasma proteins, (1 - muPPB) is then the free concentration // of the drug.</t>
-  </si>
-  <si>
-    <t>Minimum Inhibitory Concentration of Erdman strain. // This is the minimum drug concentration that inhibits the growth // of the bacteria, in this case the Erdman strain of Mycobacterium tuberculosis.</t>
-  </si>
-  <si>
-    <t>Minimum Inhibitory Concentration of Erdman Strain WITH // serum added (serum added demonstrates a more similar to the // environment the drug acts in, in-vivo).</t>
-  </si>
-  <si>
-    <t>fraction of drug concentration that is bound to the constituents // of the caseum (caseum is at the center of the necrotic granuloma) (% unbound)</t>
-  </si>
-  <si>
-    <t>rate of uptake of drug molecules by macrophages. (I/E concentration ratio). // MacUptake is unitless (I / E concentration ratio)--this could refer to // concentrations inside and outside the macrophage I intracellular / E extracellular. // The time at which the measurement is taken is probably a standard one.</t>
-  </si>
-  <si>
-    <t>When the dose is adminstered (QD reflects once // per day, and BID reflects twice per day)</t>
-  </si>
-  <si>
-    <t>The level the drug was measured.(Either occurs at // the highest level (cmax), or lowest level (trough)</t>
+    <t>amount of drug found in uninvolved lung (where there is no lesion).</t>
+  </si>
+  <si>
+    <t>amount of drug found in standard lesion (NO LUNG)</t>
+  </si>
+  <si>
+    <t>amount of drug found in standard lung (NO LESION)</t>
+  </si>
+  <si>
+    <t>octanol:water partition coefficient</t>
+  </si>
+  <si>
+    <t>The fraction of drug concentration that binds to human plasma proteins</t>
+  </si>
+  <si>
+    <t>the fraction of drug concentration that binds to mouse plasma proteins</t>
+  </si>
+  <si>
+    <t>Minimum Inhibitory Concentration of Erdman strain</t>
+  </si>
+  <si>
+    <t>Min. Inhibitory Conc. of Erdman Strain w/ serum added</t>
+  </si>
+  <si>
+    <t>fraction of drug conc. bound to the constituents of the caseum (% unbound)</t>
+  </si>
+  <si>
+    <t>rate of uptake of drug molecules by macrophages</t>
+  </si>
+  <si>
+    <t>When the dose is adminstered (QD vs BID)</t>
+  </si>
+  <si>
+    <t>The level the drug was measured (Cmax or Trough)</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -573,7 +573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -587,7 +587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -601,7 +601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -629,7 +629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -654,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -668,10 +668,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -685,7 +685,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -699,7 +699,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -713,7 +713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -727,7 +727,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -741,7 +741,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -755,7 +755,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -769,7 +769,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -797,7 +797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
